--- a/data/trans_dic/P1404-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1404-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1491223588324945</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.179429190968907</v>
+        <v>0.1794291909689071</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1415907259979122</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0978156419528767</v>
+        <v>0.09688247126304951</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09942788379857288</v>
+        <v>0.1009552069183786</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1169418793214944</v>
+        <v>0.1161099535426755</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1248137749013681</v>
+        <v>0.1274663640690853</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1313924159091564</v>
+        <v>0.1335272465271356</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.140885250313574</v>
+        <v>0.1429661184982666</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1287972345613816</v>
+        <v>0.1304913602863048</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1543468660530788</v>
+        <v>0.1561582899807833</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1246441467756811</v>
+        <v>0.1234862028805374</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1292243299168392</v>
+        <v>0.1287305250167189</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1276530105872624</v>
+        <v>0.1291360240242815</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1489737554144766</v>
+        <v>0.1503732220435119</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.149713461296485</v>
+        <v>0.1509979262731378</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1447207246676874</v>
+        <v>0.1460013453409496</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1578552619065086</v>
+        <v>0.1562356751067581</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1862850367647992</v>
+        <v>0.1924646450451209</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.180658222838533</v>
+        <v>0.1823230517329849</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1872229475249045</v>
+        <v>0.1881855626534479</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1698146570218125</v>
+        <v>0.17157256325414</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2030648628691164</v>
+        <v>0.2083555556275354</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1598752176136511</v>
+        <v>0.1602139947928815</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1604750898735542</v>
+        <v>0.1600774026691046</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1568328728963436</v>
+        <v>0.158043545286516</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.187490472489488</v>
+        <v>0.1905887868403048</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1056219025566766</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1384346089640208</v>
+        <v>0.1384346089640207</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.09151796230364062</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06353952061859597</v>
+        <v>0.06473702383608722</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08217016835825168</v>
+        <v>0.08056498565770938</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08703843707711052</v>
+        <v>0.08643235192498591</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1181918620056126</v>
+        <v>0.1181100053843799</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07435400983751746</v>
+        <v>0.07502564343868642</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1010003318332314</v>
+        <v>0.1009223271618521</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1022910288376518</v>
+        <v>0.1008917022711051</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1523167102730266</v>
+        <v>0.1513937082864046</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07366969541586921</v>
+        <v>0.0734403473985432</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09723203836008247</v>
+        <v>0.09843396582072257</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0996440485951447</v>
+        <v>0.1019828615360168</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1415157527751128</v>
+        <v>0.1410926155782886</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0961198197199935</v>
+        <v>0.09696109074344034</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1258106106430843</v>
+        <v>0.1216439411770628</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1277147451436982</v>
+        <v>0.1274606730745026</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1601317857168703</v>
+        <v>0.1600653856589888</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1096676178615719</v>
+        <v>0.1108860040207656</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1415977464034106</v>
+        <v>0.1412277125938745</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1462441873455686</v>
+        <v>0.1436271267161013</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1862194884909046</v>
+        <v>0.1894494824890919</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09737801782556066</v>
+        <v>0.09788347844783908</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1258115956422192</v>
+        <v>0.126629277649706</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1295087141371921</v>
+        <v>0.1304549332006774</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1697012732446901</v>
+        <v>0.1705780544563252</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1104774813860297</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1392685579809458</v>
+        <v>0.1392685579809457</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05050380794915615</v>
+        <v>0.04987692201210924</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1071116662070563</v>
+        <v>0.1084609448217325</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08478559540417492</v>
+        <v>0.08355007571417547</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1184976865803736</v>
+        <v>0.1200220417243806</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06684666865420351</v>
+        <v>0.0672940713061309</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1178167307050809</v>
+        <v>0.1179708642105985</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09417868213806849</v>
+        <v>0.09503062129315359</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1252158193345076</v>
+        <v>0.1247959702690346</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06107300218465646</v>
+        <v>0.06163333478844864</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1183371153217981</v>
+        <v>0.1192944039432264</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09552261782553499</v>
+        <v>0.09308106275528694</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1258026721117832</v>
+        <v>0.1256906926032359</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07844060308125746</v>
+        <v>0.07912890998555804</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1543837058129582</v>
+        <v>0.1558564721233677</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1288951074267866</v>
+        <v>0.1256351843370916</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1580298364031551</v>
+        <v>0.1589942010272201</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1027733070823192</v>
+        <v>0.1028405335245317</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1661997487477322</v>
+        <v>0.166529794383563</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1454088906824376</v>
+        <v>0.1446733174595085</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1581225346118114</v>
+        <v>0.1570261307243069</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08566206417257528</v>
+        <v>0.08345767442937552</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.150986546022191</v>
+        <v>0.1514996857031348</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.127655253738899</v>
+        <v>0.1274303090442362</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1525215698249495</v>
+        <v>0.1522916385274554</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.09513270487741088</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1534408177096287</v>
+        <v>0.1534408177096286</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.06111491596708485</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0403299964158112</v>
+        <v>0.03937584599603876</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07265185125045118</v>
+        <v>0.07072216450566608</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07074245225353705</v>
+        <v>0.07053984585195082</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1330961504008732</v>
+        <v>0.1321816353460005</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03828462907854097</v>
+        <v>0.03773673261279827</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08104218876383987</v>
+        <v>0.0812166077042626</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09723459839596532</v>
+        <v>0.0977007875517306</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1457699707071393</v>
+        <v>0.1466534279909886</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04534901986827661</v>
+        <v>0.0456219848343984</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08224275869463515</v>
+        <v>0.0816361368302434</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09022493626238971</v>
+        <v>0.09378965101503463</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1438014922345073</v>
+        <v>0.1443389385013161</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08491239024445718</v>
+        <v>0.08089630272203692</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.127666225680645</v>
+        <v>0.1290312975511952</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1242782359626344</v>
+        <v>0.125895672731445</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1777233713869994</v>
+        <v>0.1775202365176013</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09379202746031008</v>
+        <v>0.09075687057486698</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1416097202625813</v>
+        <v>0.1472966647258424</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1681208255808777</v>
+        <v>0.1623009119388252</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1836971863581234</v>
+        <v>0.186359010443085</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07968955493703521</v>
+        <v>0.08112981720188378</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1223640401333081</v>
+        <v>0.1248921999458767</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1333199873717509</v>
+        <v>0.1338152396293671</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1734352959992541</v>
+        <v>0.1752235268231289</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.1230949083018915</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1536237763662038</v>
+        <v>0.1536237763662037</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06999040153689189</v>
+        <v>0.06897506708587421</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1028870590833028</v>
+        <v>0.1027625483448514</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1035408075612376</v>
+        <v>0.1038642501871611</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.133843375921093</v>
+        <v>0.1338695221821754</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09387248688123703</v>
+        <v>0.09435544015866332</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1266471804065611</v>
+        <v>0.1273171761668977</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1212696781574343</v>
+        <v>0.1206405454333025</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1528268328617832</v>
+        <v>0.1531583782757711</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0834764879593636</v>
+        <v>0.08398407912906029</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1183334826625009</v>
+        <v>0.1186201456968671</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1150041222835379</v>
+        <v>0.1156157950606151</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1459004619272593</v>
+        <v>0.1467226670382651</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08847524874895403</v>
+        <v>0.08797149002814084</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.125882633601952</v>
+        <v>0.1262109711097671</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1245471023522776</v>
+        <v>0.1255174345037332</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1565067650363151</v>
+        <v>0.1566617355544853</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1144536943240488</v>
+        <v>0.1144909872175428</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1500842464262411</v>
+        <v>0.1507378383638828</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1452641367400089</v>
+        <v>0.1434816845596212</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1706830077219967</v>
+        <v>0.1721650968960226</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.097786978789125</v>
+        <v>0.09797135617547316</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1353232543412753</v>
+        <v>0.1348998207996956</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1302194323177342</v>
+        <v>0.131847825983518</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1606183051632037</v>
+        <v>0.1612773439716715</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>57138</v>
+        <v>56593</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>103656</v>
+        <v>105248</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>131910</v>
+        <v>130972</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>61671</v>
+        <v>62982</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>121188</v>
+        <v>123157</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>157602</v>
+        <v>159929</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>162228</v>
+        <v>164362</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>95928</v>
+        <v>97053</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>187773</v>
+        <v>186029</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>279277</v>
+        <v>278210</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>304779</v>
+        <v>308320</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>166197</v>
+        <v>167758</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>87454</v>
+        <v>88204</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>150875</v>
+        <v>152210</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>178060</v>
+        <v>176233</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>92044</v>
+        <v>95098</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>166627</v>
+        <v>168163</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>209438</v>
+        <v>210514</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>213892</v>
+        <v>216106</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>126206</v>
+        <v>129494</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>240848</v>
+        <v>241358</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>346815</v>
+        <v>345956</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>374448</v>
+        <v>377338</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>209166</v>
+        <v>212623</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>68489</v>
+        <v>69780</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>80286</v>
+        <v>78718</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>79103</v>
+        <v>78552</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>113227</v>
+        <v>113149</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>78632</v>
+        <v>79342</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>110325</v>
+        <v>110240</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>102953</v>
+        <v>101545</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>169679</v>
+        <v>168650</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>157317</v>
+        <v>156827</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>201212</v>
+        <v>203699</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>190848</v>
+        <v>195328</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>293218</v>
+        <v>292341</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>103607</v>
+        <v>104514</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>122926</v>
+        <v>118855</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>116070</v>
+        <v>115839</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>153406</v>
+        <v>153342</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>115978</v>
+        <v>117266</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>154671</v>
+        <v>154267</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>147191</v>
+        <v>144557</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>207446</v>
+        <v>211044</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>207944</v>
+        <v>209024</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>260355</v>
+        <v>262047</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>248048</v>
+        <v>249860</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>351618</v>
+        <v>353434</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>56645</v>
+        <v>55942</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>94806</v>
+        <v>96000</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>69843</v>
+        <v>68825</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>124005</v>
+        <v>125601</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>66442</v>
+        <v>66886</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>103183</v>
+        <v>103318</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>72617</v>
+        <v>73274</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>130860</v>
+        <v>130422</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>129202</v>
+        <v>130387</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>208381</v>
+        <v>210067</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>152341</v>
+        <v>148447</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>263123</v>
+        <v>262889</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>87979</v>
+        <v>88751</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>136647</v>
+        <v>137951</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>106179</v>
+        <v>103493</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>165375</v>
+        <v>166384</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>102151</v>
+        <v>102217</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>145557</v>
+        <v>145846</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>112119</v>
+        <v>111552</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>165250</v>
+        <v>164105</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>181221</v>
+        <v>176558</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>265874</v>
+        <v>266777</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>203587</v>
+        <v>203228</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>319008</v>
+        <v>318527</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18036</v>
+        <v>17609</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>36546</v>
+        <v>35575</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>35845</v>
+        <v>35743</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>129767</v>
+        <v>128876</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13061</v>
+        <v>12874</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>36691</v>
+        <v>36770</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>47616</v>
+        <v>47844</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>132269</v>
+        <v>133071</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>35751</v>
+        <v>35966</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>78604</v>
+        <v>78024</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>89900</v>
+        <v>93452</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>270688</v>
+        <v>271699</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>37973</v>
+        <v>36177</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>64219</v>
+        <v>64906</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>62972</v>
+        <v>63791</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>173278</v>
+        <v>173080</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31998</v>
+        <v>30962</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>64112</v>
+        <v>66687</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>82328</v>
+        <v>79478</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>166684</v>
+        <v>169099</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>62824</v>
+        <v>63959</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>116950</v>
+        <v>119367</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>132840</v>
+        <v>133333</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>326470</v>
+        <v>329836</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>226127</v>
+        <v>222847</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>350612</v>
+        <v>350188</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>348651</v>
+        <v>349740</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>464914</v>
+        <v>465005</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>311184</v>
+        <v>312785</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>448269</v>
+        <v>450641</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>427693</v>
+        <v>425474</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>563618</v>
+        <v>564841</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>546420</v>
+        <v>549743</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>822092</v>
+        <v>824084</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>792847</v>
+        <v>797064</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1044869</v>
+        <v>1050757</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>285848</v>
+        <v>284221</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>428975</v>
+        <v>430094</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>419385</v>
+        <v>422653</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>543637</v>
+        <v>544175</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>379410</v>
+        <v>379534</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>531225</v>
+        <v>533538</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>512316</v>
+        <v>506030</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>629471</v>
+        <v>634937</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>640094</v>
+        <v>641301</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>940124</v>
+        <v>937183</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>897743</v>
+        <v>908969</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1150271</v>
+        <v>1154991</v>
       </c>
     </row>
     <row r="24">
